--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -460,20 +460,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.43770134449005</v>
+        <v>0.004007870302302763</v>
       </c>
       <c r="C2" t="n">
-        <v>22.27933257818222</v>
+        <v>96.63892984390259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1803016173653305</v>
+        <v>3.713603291544132e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>62.10267543792725</v>
+        <v>3.357057273387909</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>tuberculosis</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -484,16 +484,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.875767976045609</v>
+        <v>0.3683611983433366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1735071535222232</v>
+        <v>0.002878158193198033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.090468127746135</v>
+        <v>0.002530871643102728</v>
       </c>
       <c r="E3" t="n">
-        <v>94.8602557182312</v>
+        <v>99.626225233078</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -508,16 +508,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4168585874140263</v>
+        <v>0.4229269456118345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005354540553526022</v>
+        <v>0.1028780825436115</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4240634385496378</v>
+        <v>0.2282799454405904</v>
       </c>
       <c r="E4" t="n">
-        <v>99.15372133255005</v>
+        <v>99.24591183662415</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.389369275420904</v>
+        <v>0.2404892118647695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09788924362510443</v>
+        <v>2.568848244845867</v>
       </c>
       <c r="D5" t="n">
-        <v>1.585841923952103</v>
+        <v>3.667042776942253</v>
       </c>
       <c r="E5" t="n">
-        <v>96.92689776420593</v>
+        <v>93.52361559867859</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.303984027497544e-11</v>
+        <v>4.500978498196478e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.653928238196407e-11</v>
+        <v>1.337308893373921e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.172532704146588e-14</v>
+        <v>9.712104074879476e-20</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.913548868832549e-06</v>
+        <v>1.049079045856161e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>5.38574705666317e-09</v>
+        <v>1.776563630068519e-19</v>
       </c>
       <c r="D7" t="n">
-        <v>3.083488054732991e-11</v>
+        <v>4.381363254985281e-20</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02909870527219027</v>
+        <v>0.008764079393586144</v>
       </c>
       <c r="C8" t="n">
-        <v>1.236082169953079e-05</v>
+        <v>1.20496815650406e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>4.387694900742645e-05</v>
+        <v>1.337610439078318e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>99.9708354473114</v>
+        <v>99.99123811721802</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.006123214960098</v>
+        <v>1.803652942180634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3335724584758282</v>
+        <v>0.01665801391936839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01008950348477811</v>
+        <v>0.02974104427266866</v>
       </c>
       <c r="E9" t="n">
-        <v>97.65020608901978</v>
+        <v>98.14994931221008</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.561416871845722</v>
+        <v>0.8145072497427464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03991819394286722</v>
+        <v>0.003470585215836763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004498634734773077</v>
+        <v>0.001747833084664308</v>
       </c>
       <c r="E10" t="n">
-        <v>98.39416146278381</v>
+        <v>99.18027520179749</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6656788755208254</v>
+        <v>0.1170831616036594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03347570600453764</v>
+        <v>0.003582464341889136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01902327203424647</v>
+        <v>0.002561546898505185</v>
       </c>
       <c r="E11" t="n">
-        <v>99.28182363510132</v>
+        <v>99.87677335739136</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.002696148333371e-06</v>
+        <v>1.745738984482159e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004313247700338252</v>
+        <v>6.898200126670417e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>99.99957084655762</v>
+        <v>99.99991655349731</v>
       </c>
       <c r="E12" t="n">
-        <v>1.728048104610025e-06</v>
+        <v>1.676719527110571e-09</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -724,16 +724,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.575298051725849e-10</v>
+        <v>7.104529638202184e-11</v>
       </c>
       <c r="C13" t="n">
-        <v>2.471669917347707e-09</v>
+        <v>4.846726575635785e-07</v>
       </c>
       <c r="D13" t="n">
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>6.377812079865928e-13</v>
+        <v>1.06805399756587e-12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -748,16 +748,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.750064484440372e-05</v>
+        <v>0.0007841192200430669</v>
       </c>
       <c r="C14" t="n">
-        <v>8.065172778515262e-05</v>
+        <v>0.01337537833023816</v>
       </c>
       <c r="D14" t="n">
-        <v>99.99990463256836</v>
+        <v>99.98569488525391</v>
       </c>
       <c r="E14" t="n">
-        <v>5.125235347236412e-07</v>
+        <v>0.0001376284217258217</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.590818918932428e-07</v>
+        <v>3.351378549676376e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>1.1098796548481e-06</v>
+        <v>9.404365286513894e-07</v>
       </c>
       <c r="D15" t="n">
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>4.322359527589303e-11</v>
+        <v>3.087812191810042e-12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.537158832500609e-06</v>
+        <v>3.080888877349253e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>6.974617576815945e-05</v>
+        <v>0.0003852640020340914</v>
       </c>
       <c r="D16" t="n">
-        <v>99.99992847442627</v>
+        <v>99.99961853027344</v>
       </c>
       <c r="E16" t="n">
-        <v>5.357138690986751e-09</v>
+        <v>3.131414615456518e-10</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.285322745545272e-05</v>
+        <v>4.456352620252346e-07</v>
       </c>
       <c r="C17" t="n">
-        <v>3.261756376105041e-05</v>
+        <v>4.901195538309366e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>99.99992847442627</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>5.891321563922247e-06</v>
+        <v>4.129631706040193e-09</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.235169033719785e-06</v>
+        <v>9.199785822033846e-07</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004093469669896876</v>
+        <v>0.0002008511955864378</v>
       </c>
       <c r="D18" t="n">
-        <v>99.99959468841553</v>
+        <v>99.99979734420776</v>
       </c>
       <c r="E18" t="n">
-        <v>4.492001215439245e-09</v>
+        <v>6.614241099267559e-09</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.913012491807422e-06</v>
+        <v>4.290785435290267e-09</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001290001273446251</v>
+        <v>8.067743237916147e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>99.9987006187439</v>
+        <v>99.99991655349731</v>
       </c>
       <c r="E19" t="n">
-        <v>3.351547372965058e-08</v>
+        <v>6.216516017232276e-11</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.049055634028129e-08</v>
+        <v>6.313197442034055e-12</v>
       </c>
       <c r="C20" t="n">
-        <v>1.878825761636449e-07</v>
+        <v>1.002202210109715e-08</v>
       </c>
       <c r="D20" t="n">
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>7.190541564949804e-10</v>
+        <v>1.830894140970182e-14</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.889985531918999e-10</v>
+        <v>7.751144967841836e-12</v>
       </c>
       <c r="C21" t="n">
-        <v>1.573802776988487e-06</v>
+        <v>1.358806817064462e-08</v>
       </c>
       <c r="D21" t="n">
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>2.048146537352719e-11</v>
+        <v>1.457500841996805e-15</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.094270035168933e-08</v>
+        <v>2.807478693966914e-07</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>3.882347731059416e-12</v>
+        <v>3.809193984679682e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>7.985125690009032e-11</v>
+        <v>1.864320919864326e-08</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -964,16 +964,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003563874270184897</v>
+        <v>0.0005679027708538342</v>
       </c>
       <c r="C23" t="n">
-        <v>99.99042749404907</v>
+        <v>99.99942779541016</v>
       </c>
       <c r="D23" t="n">
-        <v>1.17090523943375e-06</v>
+        <v>4.036701181653335e-09</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006012154699419625</v>
+        <v>5.079822429365777e-06</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -988,16 +988,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.419448727954194e-10</v>
+        <v>1.309218358724884e-09</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>8.951469597571864e-14</v>
+        <v>1.762398250935841e-16</v>
       </c>
       <c r="E24" t="n">
-        <v>9.559465198594186e-10</v>
+        <v>1.386016952251157e-11</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1012,16 +1012,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1420535729266703</v>
+        <v>0.01937203924171627</v>
       </c>
       <c r="C25" t="n">
-        <v>99.84052777290344</v>
+        <v>99.97801184654236</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004252541202731663</v>
+        <v>0.0001051420895237243</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01700073335086927</v>
+        <v>0.002511648199288175</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.47395072708423e-06</v>
+        <v>8.426257025462291e-07</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>1.141518655859222e-11</v>
+        <v>5.314407530850832e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>6.614992553721777e-07</v>
+        <v>1.965126950054241e-08</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.451580129076319e-05</v>
+        <v>3.817564575570032e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>99.99985694885254</v>
+        <v>99.99998807907104</v>
       </c>
       <c r="D27" t="n">
-        <v>2.290120590942024e-05</v>
+        <v>1.462931442652859e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>4.133298432407173e-05</v>
+        <v>1.15316630910911e-05</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02050978218903765</v>
+        <v>2.186290315453476e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>99.97949004173279</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>3.265299808319355e-07</v>
+        <v>9.344976190186161e-16</v>
       </c>
       <c r="E28" t="n">
-        <v>1.139360339408313e-06</v>
+        <v>6.258057714750168e-13</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006004715032759123</v>
+        <v>3.638975556441437e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>99.99277591705322</v>
+        <v>99.99996423721313</v>
       </c>
       <c r="D29" t="n">
-        <v>1.268124236730728e-05</v>
+        <v>3.520243721088362e-11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001205842181661865</v>
+        <v>7.737307683441941e-07</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1818344695493579</v>
+        <v>0.005872645488125272</v>
       </c>
       <c r="C30" t="n">
-        <v>99.70171451568604</v>
+        <v>99.99363422393799</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001150491425505606</v>
+        <v>2.264048060141022e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1153018791228533</v>
+        <v>0.0004840670044359285</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.891897103538213e-05</v>
+        <v>4.236357931119983e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>99.99991655349731</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>3.888792621253856e-08</v>
+        <v>1.874319667291338e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.333024440304143e-05</v>
+        <v>5.660750080488386e-10</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.78622794151306</v>
+        <v>99.95562434196472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1055947504937649</v>
+        <v>0.04402995109558105</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008059499668888748</v>
+        <v>1.657298440704835e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1001157332211733</v>
+        <v>0.0003261569418100407</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>86.54460906982422</v>
+        <v>99.99837875366211</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1167274662293494</v>
+        <v>9.502031161900959e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>13.29599618911743</v>
+        <v>0.001233874991157791</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0426739250542596</v>
+        <v>0.0003759296760108555</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.99919533729553</v>
+        <v>99.20380115509033</v>
       </c>
       <c r="C34" t="n">
-        <v>24.92950856685638</v>
+        <v>0.7919779047369957</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003042733624170069</v>
+        <v>6.423334042438e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06826237076893449</v>
+        <v>0.004216052184347063</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.479064792394638</v>
+        <v>0.02644328342285007</v>
       </c>
       <c r="C35" t="n">
-        <v>95.40941119194031</v>
+        <v>99.97352957725525</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0006365714853018289</v>
+        <v>6.659696349942124e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1108887256123126</v>
+        <v>2.862527708202833e-05</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1276,16 +1276,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.96222257614136</v>
+        <v>99.99525547027588</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004655640441342257</v>
+        <v>0.001624339529371355</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001515595977252815</v>
+        <v>0.0007035124781396007</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03159727202728391</v>
+        <v>0.002422099169052672</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.839762120425803e-05</v>
+        <v>0.06235926412045956</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00706274586264044</v>
+        <v>8.209646493196487</v>
       </c>
       <c r="D37" t="n">
-        <v>99.99290704727173</v>
+        <v>91.71766638755798</v>
       </c>
       <c r="E37" t="n">
-        <v>8.790780725576042e-06</v>
+        <v>0.01032173531712033</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.7996039390564</v>
+        <v>99.56573247909546</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1780907856300473</v>
+        <v>0.004129343142267317</v>
       </c>
       <c r="D38" t="n">
-        <v>2.264563553035259</v>
+        <v>0.3498749108985066</v>
       </c>
       <c r="E38" t="n">
-        <v>4.757745191454887</v>
+        <v>0.08026784635148942</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.2513735294342</v>
+        <v>99.99983310699463</v>
       </c>
       <c r="C39" t="n">
-        <v>1.721721142530441</v>
+        <v>6.409595698642079e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4208830185234547</v>
+        <v>2.220380252992982e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6060195621103048</v>
+        <v>8.023747000152071e-05</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1372,16 +1372,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.3366847038269</v>
+        <v>97.27635383605957</v>
       </c>
       <c r="C40" t="n">
-        <v>1.601581089198589</v>
+        <v>2.718453668057919</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00309252500301227</v>
+        <v>2.640662728481402e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05864320555701852</v>
+        <v>0.005172464807401411</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1396,16 +1396,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.78058266639709</v>
+        <v>95.90809345245361</v>
       </c>
       <c r="C41" t="n">
-        <v>8.774980902671814</v>
+        <v>1.054741535335779</v>
       </c>
       <c r="D41" t="n">
-        <v>5.02396821975708</v>
+        <v>1.677576638758183</v>
       </c>
       <c r="E41" t="n">
-        <v>4.42047119140625</v>
+        <v>1.359588280320168</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
